--- a/dataset/PEMENDEKAN-Lema.xlsx
+++ b/dataset/PEMENDEKAN-Lema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC958B1-DD27-4D63-B970-A5E6CEFE9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96625CE4-226D-4CCD-8663-FB4F956D2CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>PEMENDEKAN</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">wak, wak, </t>
-  </si>
-  <si>
-    <t>yah</t>
   </si>
   <si>
     <t>yah, pa, pak</t>
@@ -721,10 +718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -777,13 +774,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -937,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1162,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -1288,7 +1285,7 @@
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>6</v>
@@ -1299,50 +1296,47 @@
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="12.75">
+      <c r="A56" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -1350,14 +1344,14 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="12.75">
       <c r="B58" s="8" t="s">
         <v>6</v>
       </c>
@@ -1443,9 +1437,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
-      <c r="A69" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="8" t="s">
         <v>6</v>
       </c>
@@ -1470,9 +1462,6 @@
     </row>
     <row r="73" spans="1:2" ht="15">
       <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="A74" s="1"/>
@@ -1870,9 +1859,7 @@
     <row r="205" spans="1:1" ht="15">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" ht="15">
-      <c r="A206" s="1"/>
-    </row>
+    <row r="206" spans="1:1" ht="12.75"/>
     <row r="207" spans="1:1" ht="12.75"/>
     <row r="208" spans="1:1" ht="12.75"/>
     <row r="209" spans="1:1" ht="12.75"/>
@@ -1883,7 +1870,9 @@
     <row r="214" spans="1:1" ht="12.75"/>
     <row r="215" spans="1:1" ht="12.75"/>
     <row r="216" spans="1:1" ht="12.75"/>
-    <row r="217" spans="1:1" ht="12.75"/>
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="1"/>
+    </row>
     <row r="218" spans="1:1" ht="15">
       <c r="A218" s="1"/>
     </row>
@@ -2097,52 +2086,52 @@
     <row r="288" spans="1:1" ht="15">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:2" ht="15">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:2" ht="12.75">
+    <row r="289" spans="2:2" ht="12.75">
+      <c r="B289" s="11"/>
+    </row>
+    <row r="290" spans="2:2" ht="12.75">
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="12.75">
+    <row r="291" spans="2:2" ht="12.75">
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="12.75">
+    <row r="292" spans="2:2" ht="12.75">
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="12.75">
+    <row r="293" spans="2:2" ht="12.75">
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="12.75">
+    <row r="294" spans="2:2" ht="12.75">
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="12.75">
+    <row r="295" spans="2:2" ht="12.75">
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="12.75">
+    <row r="296" spans="2:2" ht="12.75">
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="12.75">
+    <row r="297" spans="2:2" ht="12.75">
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="12.75">
+    <row r="298" spans="2:2" ht="12.75">
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="12.75">
+    <row r="299" spans="2:2" ht="12.75">
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="12.75">
+    <row r="300" spans="2:2" ht="12.75">
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="12.75">
+    <row r="301" spans="2:2" ht="12.75">
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="12.75">
+    <row r="302" spans="2:2" ht="12.75">
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="12.75">
+    <row r="303" spans="2:2" ht="12.75">
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="12.75">
+    <row r="304" spans="2:2" ht="12.75">
       <c r="B304" s="11"/>
     </row>
     <row r="305" spans="2:2" ht="12.75">
@@ -2576,9 +2565,6 @@
     </row>
     <row r="448" spans="2:2" ht="12.75">
       <c r="B448" s="11"/>
-    </row>
-    <row r="449" spans="2:2" ht="12.75">
-      <c r="B449" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
